--- a/concept/public/data/IN-KA.xlsx
+++ b/concept/public/data/IN-KA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S38"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,209 +436,177 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>S No.</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 1</t>
+          <t>Location</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 2</t>
+          <t>College Name</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 3</t>
+          <t>Category</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 4</t>
+          <t>Annula Fees</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ROUND-1</t>
+          <t>RANK (R1)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 6</t>
+          <t>SCORE (R1)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>ROUND-2</t>
+          <t>RANK (R2)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 8</t>
+          <t>SCORE (R2)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ROUND-3</t>
+          <t>RANK (R3)</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 10</t>
+          <t>SCORE (R3)</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Stary</t>
+          <t>RANK (Stray)</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 12</t>
+          <t>SCORE (Stray)</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Special Stray 1</t>
+          <t>RANK (Special Stray)</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 14</t>
+          <t>SCORE (Special Stray)</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Special Stray 2</t>
+          <t>RANK (Special Stray 2)</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 16</t>
+          <t>SCORE (Special Stray 2)</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Special Stray 3</t>
+          <t>RANK (Special Stray 3)</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 18</t>
+          <t>SCORE (Special Stray 3)</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>S No.</t>
-        </is>
+      <c r="A2" t="n">
+        <v>17</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Location</t>
+          <t>Mangalore, Karnataka</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>College Name</t>
+          <t>A.J. IMS &amp; Research Center</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Category</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Annula Fees</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>RANK (R1)</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>SCORE (R1)</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>RANK (R2)</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>SCORE (R2)</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>RANK (R3)</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>SCORE (R3)</t>
-        </is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1200867</v>
+      </c>
+      <c r="F2" t="n">
+        <v>34065</v>
+      </c>
+      <c r="G2" t="n">
+        <v>641</v>
+      </c>
+      <c r="H2" t="n">
+        <v>62531</v>
+      </c>
+      <c r="I2" t="n">
+        <v>613</v>
+      </c>
+      <c r="J2" t="n">
+        <v>74029</v>
+      </c>
+      <c r="K2" t="n">
+        <v>603</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>RANK</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>SCORE</t>
+          <t>-</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>RANK</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>SCORE</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>RANK</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>SCORE</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>RANK</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>SCORE</t>
-        </is>
-      </c>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mangalore, Karnataka</t>
+          <t>Mandya, Karnataka</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A.J. IMS &amp; Research Center</t>
+          <t>Adichunchanagiri IMS</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -647,34 +615,30 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1200867</v>
+        <v>2215750</v>
       </c>
       <c r="F3" t="n">
-        <v>34065</v>
+        <v>171890</v>
       </c>
       <c r="G3" t="n">
-        <v>641</v>
+        <v>524</v>
       </c>
       <c r="H3" t="n">
-        <v>62531</v>
+        <v>362924</v>
       </c>
       <c r="I3" t="n">
-        <v>613</v>
+        <v>406</v>
       </c>
       <c r="J3" t="n">
-        <v>74029</v>
+        <v>180676</v>
       </c>
       <c r="K3" t="n">
-        <v>603</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>--</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -694,16 +658,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mandya, Karnataka</t>
+          <t>Bangalore, Karnataka</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Adichunchanagiri IMS</t>
+          <t>Akash IMS &amp; RC</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -712,30 +676,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2215750</v>
+        <v>1200867</v>
       </c>
       <c r="F4" t="n">
-        <v>171890</v>
+        <v>37398</v>
       </c>
       <c r="G4" t="n">
-        <v>524</v>
+        <v>638</v>
       </c>
       <c r="H4" t="n">
-        <v>362924</v>
+        <v>81599</v>
       </c>
       <c r="I4" t="n">
-        <v>406</v>
+        <v>596</v>
       </c>
       <c r="J4" t="n">
-        <v>180676</v>
+        <v>86438</v>
       </c>
       <c r="K4" t="n">
-        <v>517</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
+        <v>592</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>-</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -755,16 +723,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bangalore, Karnataka</t>
+          <t>Bijapur, Karnataka</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Akash IMS &amp; RC</t>
+          <t>Al-Ameen Medical College</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -776,22 +744,22 @@
         <v>1200867</v>
       </c>
       <c r="F5" t="n">
-        <v>37398</v>
+        <v>53743</v>
       </c>
       <c r="G5" t="n">
-        <v>638</v>
+        <v>621</v>
       </c>
       <c r="H5" t="n">
-        <v>81599</v>
+        <v>117292</v>
       </c>
       <c r="I5" t="n">
-        <v>596</v>
+        <v>566</v>
       </c>
       <c r="J5" t="n">
-        <v>86438</v>
+        <v>88734</v>
       </c>
       <c r="K5" t="n">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -820,16 +788,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bijapur, Karnataka</t>
+          <t>Chitradurga, Karnataka</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Al-Ameen Medical College</t>
+          <t>Basaveswara Medical College and Hospital, Chitradurga</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -841,22 +809,22 @@
         <v>1200867</v>
       </c>
       <c r="F6" t="n">
-        <v>53743</v>
+        <v>56426</v>
       </c>
       <c r="G6" t="n">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H6" t="n">
-        <v>117292</v>
+        <v>112388</v>
       </c>
       <c r="I6" t="n">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="J6" t="n">
-        <v>88734</v>
+        <v>80772</v>
       </c>
       <c r="K6" t="n">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -885,16 +853,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Chitradurga, Karnataka</t>
+          <t>Bangalore, Karnataka</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Basaveswara Medical College and Hospital, Chitradurga</t>
+          <t>BGS Global IMS</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -906,32 +874,28 @@
         <v>1200867</v>
       </c>
       <c r="F7" t="n">
-        <v>56426</v>
+        <v>32065</v>
       </c>
       <c r="G7" t="n">
-        <v>619</v>
+        <v>644</v>
       </c>
       <c r="H7" t="n">
-        <v>112388</v>
+        <v>55777</v>
       </c>
       <c r="I7" t="n">
-        <v>570</v>
+        <v>620</v>
       </c>
       <c r="J7" t="n">
-        <v>80772</v>
+        <v>70401</v>
       </c>
       <c r="K7" t="n">
-        <v>597</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>606</v>
+      </c>
+      <c r="L7" t="n">
+        <v>37292</v>
+      </c>
+      <c r="M7" t="n">
+        <v>638</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -950,7 +914,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -959,7 +923,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BGS Global IMS</t>
+          <t>BGS Medical College</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -968,41 +932,37 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1200867</v>
+        <v>2215750</v>
       </c>
       <c r="F8" t="n">
-        <v>32065</v>
+        <v>119095</v>
       </c>
       <c r="G8" t="n">
-        <v>644</v>
+        <v>565</v>
       </c>
       <c r="H8" t="n">
-        <v>55777</v>
+        <v>469973</v>
       </c>
       <c r="I8" t="n">
-        <v>620</v>
+        <v>355</v>
       </c>
       <c r="J8" t="n">
-        <v>70401</v>
+        <v>255259</v>
       </c>
       <c r="K8" t="n">
-        <v>606</v>
+        <v>467</v>
       </c>
       <c r="L8" t="n">
-        <v>37292</v>
+        <v>83011</v>
       </c>
       <c r="M8" t="n">
-        <v>638</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>595</v>
+      </c>
+      <c r="N8" t="n">
+        <v>155241</v>
+      </c>
+      <c r="O8" t="n">
+        <v>536</v>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
@@ -1011,7 +971,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1020,7 +980,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BGS Medical College</t>
+          <t>Dr. B.R. Ambedkar</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1029,37 +989,41 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2215750</v>
+        <v>1200867</v>
       </c>
       <c r="F9" t="n">
-        <v>119095</v>
+        <v>29631</v>
       </c>
       <c r="G9" t="n">
-        <v>565</v>
+        <v>646</v>
       </c>
       <c r="H9" t="n">
-        <v>469973</v>
+        <v>53817</v>
       </c>
       <c r="I9" t="n">
-        <v>355</v>
+        <v>621</v>
       </c>
       <c r="J9" t="n">
-        <v>255259</v>
+        <v>71887</v>
       </c>
       <c r="K9" t="n">
-        <v>467</v>
-      </c>
-      <c r="L9" t="n">
-        <v>83011</v>
-      </c>
-      <c r="M9" t="n">
-        <v>595</v>
+        <v>605</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N9" t="n">
-        <v>155241</v>
+        <v>32755</v>
       </c>
       <c r="O9" t="n">
-        <v>536</v>
+        <v>643</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
@@ -1068,16 +1032,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bangalore, Karnataka</t>
+          <t>Harohalli, Karnataka</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Dr. B.R. Ambedkar</t>
+          <t>Dr. Chand. Dayananda Sagar</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1086,41 +1050,33 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1200867</v>
+        <v>2215750</v>
       </c>
       <c r="F10" t="n">
-        <v>29631</v>
+        <v>165389</v>
       </c>
       <c r="G10" t="n">
-        <v>646</v>
+        <v>529</v>
       </c>
       <c r="H10" t="n">
-        <v>53817</v>
+        <v>355106</v>
       </c>
       <c r="I10" t="n">
-        <v>621</v>
+        <v>410</v>
       </c>
       <c r="J10" t="n">
-        <v>71887</v>
+        <v>203129</v>
       </c>
       <c r="K10" t="n">
-        <v>605</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
-        <v>32755</v>
-      </c>
-      <c r="O10" t="n">
-        <v>643</v>
+        <v>517</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
@@ -1129,16 +1085,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Harohalli, Karnataka</t>
+          <t>Bangalore, Karnataka</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Dr. Chand. Dayananda Sagar</t>
+          <t>East Point College</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1147,29 +1103,37 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2215750</v>
+        <v>1200867</v>
       </c>
       <c r="F11" t="n">
-        <v>165389</v>
+        <v>43015</v>
       </c>
       <c r="G11" t="n">
-        <v>529</v>
+        <v>632</v>
       </c>
       <c r="H11" t="n">
-        <v>355106</v>
+        <v>100663</v>
       </c>
       <c r="I11" t="n">
-        <v>410</v>
+        <v>580</v>
       </c>
       <c r="J11" t="n">
-        <v>203129</v>
+        <v>84648</v>
       </c>
       <c r="K11" t="n">
-        <v>517</v>
-      </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+        <v>593</v>
+      </c>
+      <c r="L11" t="n">
+        <v>83376</v>
+      </c>
+      <c r="M11" t="n">
+        <v>595</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="O11" t="inlineStr">
         <is>
           <t>-</t>
@@ -1182,16 +1146,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Bangalore, Karnataka</t>
+          <t>Mangalore, Karnataka</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>East Point College</t>
+          <t>Father Muller, Mangalore</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1203,28 +1167,32 @@
         <v>1200867</v>
       </c>
       <c r="F12" t="n">
-        <v>43015</v>
+        <v>27826</v>
       </c>
       <c r="G12" t="n">
-        <v>632</v>
+        <v>649</v>
       </c>
       <c r="H12" t="n">
-        <v>100663</v>
+        <v>53571</v>
       </c>
       <c r="I12" t="n">
-        <v>580</v>
+        <v>621</v>
       </c>
       <c r="J12" t="n">
-        <v>84648</v>
+        <v>58773</v>
       </c>
       <c r="K12" t="n">
-        <v>593</v>
-      </c>
-      <c r="L12" t="n">
-        <v>83376</v>
-      </c>
-      <c r="M12" t="n">
-        <v>595</v>
+        <v>617</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,16 +1211,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Mangalore, Karnataka</t>
+          <t>Davangere, Karnataka</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Father Muller, Mangalore</t>
+          <t>J J M Davangere</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1264,22 +1232,22 @@
         <v>1200867</v>
       </c>
       <c r="F13" t="n">
-        <v>27826</v>
+        <v>39489</v>
       </c>
       <c r="G13" t="n">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="H13" t="n">
-        <v>53571</v>
+        <v>69712</v>
       </c>
       <c r="I13" t="n">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="J13" t="n">
-        <v>58773</v>
+        <v>70563</v>
       </c>
       <c r="K13" t="n">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1308,16 +1276,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Davangere, Karnataka</t>
+          <t>Mangalore, Karnataka</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>J J M Davangere</t>
+          <t>Kanachur IMS and RC</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1329,22 +1297,22 @@
         <v>1200867</v>
       </c>
       <c r="F14" t="n">
-        <v>39489</v>
+        <v>48710</v>
       </c>
       <c r="G14" t="n">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="H14" t="n">
-        <v>69712</v>
+        <v>117540</v>
       </c>
       <c r="I14" t="n">
-        <v>607</v>
+        <v>566</v>
       </c>
       <c r="J14" t="n">
-        <v>70563</v>
+        <v>107303</v>
       </c>
       <c r="K14" t="n">
-        <v>606</v>
+        <v>574</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1373,16 +1341,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Mangalore, Karnataka</t>
+          <t>Bangalore, Karnataka</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Kanachur IMS and RC</t>
+          <t>Kempegowda IMS</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1394,32 +1362,28 @@
         <v>1200867</v>
       </c>
       <c r="F15" t="n">
-        <v>48710</v>
+        <v>24675</v>
       </c>
       <c r="G15" t="n">
-        <v>626</v>
+        <v>652</v>
       </c>
       <c r="H15" t="n">
-        <v>117540</v>
+        <v>32632</v>
       </c>
       <c r="I15" t="n">
-        <v>566</v>
+        <v>643</v>
       </c>
       <c r="J15" t="n">
-        <v>107303</v>
+        <v>50045</v>
       </c>
       <c r="K15" t="n">
-        <v>574</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>625</v>
+      </c>
+      <c r="L15" t="n">
+        <v>31945</v>
+      </c>
+      <c r="M15" t="n">
+        <v>644</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1438,16 +1402,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Bangalore, Karnataka</t>
+          <t>Gulbarga, Karnataka</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Kempegowda IMS</t>
+          <t>Khaja Bande Navaz IMS</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1456,42 +1420,38 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1200867</v>
+        <v>1630715</v>
       </c>
       <c r="F16" t="n">
-        <v>24675</v>
+        <v>82915</v>
       </c>
       <c r="G16" t="n">
-        <v>652</v>
+        <v>595</v>
       </c>
       <c r="H16" t="n">
-        <v>32632</v>
+        <v>178537</v>
       </c>
       <c r="I16" t="n">
-        <v>643</v>
+        <v>519</v>
       </c>
       <c r="J16" t="n">
-        <v>50045</v>
+        <v>154432</v>
       </c>
       <c r="K16" t="n">
-        <v>625</v>
-      </c>
-      <c r="L16" t="n">
-        <v>31945</v>
-      </c>
-      <c r="M16" t="n">
-        <v>644</v>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+        <v>537</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
@@ -1499,16 +1459,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Gulbarga, Karnataka</t>
+          <t>Mangalore, Karnataka</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Khaja Bande Navaz IMS</t>
+          <t>KVG Sulia</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1517,38 +1477,46 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1630715</v>
+        <v>1200867</v>
       </c>
       <c r="F17" t="n">
-        <v>82915</v>
+        <v>62414</v>
       </c>
       <c r="G17" t="n">
-        <v>595</v>
+        <v>613</v>
       </c>
       <c r="H17" t="n">
-        <v>178537</v>
+        <v>125737</v>
       </c>
       <c r="I17" t="n">
-        <v>519</v>
+        <v>559</v>
       </c>
       <c r="J17" t="n">
-        <v>154432</v>
+        <v>102804</v>
       </c>
       <c r="K17" t="n">
-        <v>537</v>
+        <v>578</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
@@ -1556,16 +1524,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Mangalore, Karnataka</t>
+          <t>Bangalore, Karnataka</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>KVG Sulia</t>
+          <t>M.S. Ramaiah Medical College</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1574,25 +1542,25 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1200867</v>
+        <v>2515750</v>
       </c>
       <c r="F18" t="n">
-        <v>62414</v>
+        <v>63851</v>
       </c>
       <c r="G18" t="n">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H18" t="n">
-        <v>125737</v>
+        <v>152068</v>
       </c>
       <c r="I18" t="n">
-        <v>559</v>
+        <v>539</v>
       </c>
       <c r="J18" t="n">
-        <v>102804</v>
+        <v>127512</v>
       </c>
       <c r="K18" t="n">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1621,7 +1589,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1630,7 +1598,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>M.S. Ramaiah Medical College</t>
+          <t>M.V.J. Medical College</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1639,25 +1607,25 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2515750</v>
+        <v>1200867</v>
       </c>
       <c r="F19" t="n">
-        <v>63851</v>
+        <v>34508</v>
       </c>
       <c r="G19" t="n">
-        <v>612</v>
+        <v>641</v>
       </c>
       <c r="H19" t="n">
-        <v>152068</v>
+        <v>62802</v>
       </c>
       <c r="I19" t="n">
-        <v>539</v>
+        <v>613</v>
       </c>
       <c r="J19" t="n">
-        <v>127512</v>
+        <v>72129</v>
       </c>
       <c r="K19" t="n">
-        <v>558</v>
+        <v>605</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1686,16 +1654,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Bangalore, Karnataka</t>
+          <t>Gulbarga, Karnataka</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>M.V.J. Medical College</t>
+          <t>Mahadevappa Rampure</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1707,22 +1675,22 @@
         <v>1200867</v>
       </c>
       <c r="F20" t="n">
-        <v>34508</v>
+        <v>41544</v>
       </c>
       <c r="G20" t="n">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="H20" t="n">
-        <v>62802</v>
+        <v>81690</v>
       </c>
       <c r="I20" t="n">
-        <v>613</v>
+        <v>596</v>
       </c>
       <c r="J20" t="n">
-        <v>72129</v>
+        <v>81694</v>
       </c>
       <c r="K20" t="n">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1751,16 +1719,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Gulbarga, Karnataka</t>
+          <t>Raichur, Karnataka</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Mahadevappa Rampure</t>
+          <t>Navodaya Medical College</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1772,22 +1740,22 @@
         <v>1200867</v>
       </c>
       <c r="F21" t="n">
-        <v>41544</v>
+        <v>60274</v>
       </c>
       <c r="G21" t="n">
-        <v>634</v>
+        <v>615</v>
       </c>
       <c r="H21" t="n">
-        <v>81690</v>
+        <v>127070</v>
       </c>
       <c r="I21" t="n">
-        <v>596</v>
+        <v>558</v>
       </c>
       <c r="J21" t="n">
-        <v>81694</v>
+        <v>89182</v>
       </c>
       <c r="K21" t="n">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1816,16 +1784,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Raichur, Karnataka</t>
+          <t>Bangalore, Karnataka</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Navodaya Medical College</t>
+          <t>PES University</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1834,26 +1802,22 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1200867</v>
+        <v>2215750</v>
       </c>
       <c r="F22" t="n">
-        <v>60274</v>
+        <v>146769</v>
       </c>
       <c r="G22" t="n">
-        <v>615</v>
+        <v>543</v>
       </c>
       <c r="H22" t="n">
-        <v>127070</v>
+        <v>279838</v>
       </c>
       <c r="I22" t="n">
-        <v>558</v>
-      </c>
-      <c r="J22" t="n">
-        <v>89182</v>
-      </c>
-      <c r="K22" t="n">
-        <v>590</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
           <t>-</t>
@@ -1881,16 +1845,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Bangalore, Karnataka</t>
+          <t>Davangere, Karnataka</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>PES University</t>
+          <t>S S Institute of Medical Sciences&amp; Research Centre, Davangere</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1899,22 +1863,26 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2215750</v>
+        <v>1200867</v>
       </c>
       <c r="F23" t="n">
-        <v>146769</v>
+        <v>47359</v>
       </c>
       <c r="G23" t="n">
-        <v>543</v>
+        <v>627</v>
       </c>
       <c r="H23" t="n">
-        <v>279838</v>
+        <v>90404</v>
       </c>
       <c r="I23" t="n">
-        <v>452</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>589</v>
+      </c>
+      <c r="J23" t="n">
+        <v>75395</v>
+      </c>
+      <c r="K23" t="n">
+        <v>602</v>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
           <t>-</t>
@@ -1942,16 +1910,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Davangere, Karnataka</t>
+          <t>Bagalkot, Karnataka</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>S S Institute of Medical Sciences&amp; Research Centre, Davangere</t>
+          <t>S. Nijalingappa MC &amp; RC</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1963,22 +1931,22 @@
         <v>1200867</v>
       </c>
       <c r="F24" t="n">
-        <v>47359</v>
+        <v>58578</v>
       </c>
       <c r="G24" t="n">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="H24" t="n">
-        <v>90404</v>
+        <v>107262</v>
       </c>
       <c r="I24" t="n">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="J24" t="n">
-        <v>75395</v>
+        <v>76337</v>
       </c>
       <c r="K24" t="n">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -2007,43 +1975,57 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Bagalkot, Karnataka</t>
+          <t>Kolar, Karnataka</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>S. Nijalingappa MC &amp; RC</t>
+          <t>Sambharam Institute of Medical Sciences &amp; Research, Kolar</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>OPEN</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>1200867</v>
-      </c>
-      <c r="F25" t="n">
-        <v>58578</v>
-      </c>
-      <c r="G25" t="n">
-        <v>617</v>
-      </c>
-      <c r="H25" t="n">
-        <v>107262</v>
-      </c>
-      <c r="I25" t="n">
-        <v>574</v>
-      </c>
-      <c r="J25" t="n">
-        <v>76337</v>
-      </c>
-      <c r="K25" t="n">
-        <v>601</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -2065,118 +2047,92 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Kolar, Karnataka</t>
+          <t>Bangalore, Karnataka</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Sambharam Institute of Medical Sciences &amp; Research, Kolar</t>
+          <t>Sapthagiri Institute of Med. Sc.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>2241500</v>
+      </c>
+      <c r="F26" t="n">
+        <v>112745</v>
+      </c>
+      <c r="G26" t="n">
+        <v>570</v>
+      </c>
+      <c r="H26" t="n">
+        <v>402131</v>
+      </c>
+      <c r="I26" t="n">
+        <v>386</v>
+      </c>
+      <c r="J26" t="n">
+        <v>318414</v>
+      </c>
+      <c r="K26" t="n">
+        <v>429</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Bangalore, Karnataka</t>
+          <t>Dharwad, Karnataka</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Sapthagiri Institute of Med. Sc.</t>
+          <t>SDM, Dharwad</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2185,29 +2141,45 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2241500</v>
+        <v>2015750</v>
       </c>
       <c r="F27" t="n">
-        <v>112745</v>
+        <v>107915</v>
       </c>
       <c r="G27" t="n">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="H27" t="n">
-        <v>402131</v>
+        <v>169478</v>
       </c>
       <c r="I27" t="n">
-        <v>386</v>
-      </c>
-      <c r="J27" t="n">
-        <v>318414</v>
-      </c>
-      <c r="K27" t="n">
-        <v>429</v>
-      </c>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
+        <v>525</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="O27" t="inlineStr">
         <is>
           <t>-</t>
@@ -2220,16 +2192,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Dharwad, Karnataka</t>
+          <t>Tumkur, Karnataka</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SDM, Dharwad</t>
+          <t>Shridevi IMS &amp; Rch. Hospital</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2238,29 +2210,25 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2015750</v>
+        <v>1200867</v>
       </c>
       <c r="F28" t="n">
-        <v>107915</v>
+        <v>59509</v>
       </c>
       <c r="G28" t="n">
-        <v>574</v>
+        <v>616</v>
       </c>
       <c r="H28" t="n">
-        <v>169478</v>
+        <v>123084</v>
       </c>
       <c r="I28" t="n">
-        <v>525</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>561</v>
+      </c>
+      <c r="J28" t="n">
+        <v>97973</v>
+      </c>
+      <c r="K28" t="n">
+        <v>582</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -2289,16 +2257,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Tumkur, Karnataka</t>
+          <t>Tumkuru, Karnataka</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Shridevi IMS &amp; Rch. Hospital</t>
+          <t>Siddaganga Medical College</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2310,22 +2278,22 @@
         <v>1200867</v>
       </c>
       <c r="F29" t="n">
-        <v>59509</v>
+        <v>61425</v>
       </c>
       <c r="G29" t="n">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H29" t="n">
-        <v>123084</v>
+        <v>105023</v>
       </c>
       <c r="I29" t="n">
-        <v>561</v>
+        <v>576</v>
       </c>
       <c r="J29" t="n">
-        <v>97973</v>
+        <v>76150</v>
       </c>
       <c r="K29" t="n">
-        <v>582</v>
+        <v>601</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -2354,16 +2322,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Tumkuru, Karnataka</t>
+          <t>Bagalkot, Karnataka</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Siddaganga Medical College</t>
+          <t>SR Patil Medical College</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2375,22 +2343,22 @@
         <v>1200867</v>
       </c>
       <c r="F30" t="n">
-        <v>61425</v>
+        <v>64851</v>
       </c>
       <c r="G30" t="n">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="H30" t="n">
-        <v>105023</v>
+        <v>133093</v>
       </c>
       <c r="I30" t="n">
-        <v>576</v>
+        <v>553</v>
       </c>
       <c r="J30" t="n">
-        <v>76150</v>
+        <v>103714</v>
       </c>
       <c r="K30" t="n">
-        <v>601</v>
+        <v>577</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -2419,16 +2387,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Bagalkot, Karnataka</t>
+          <t>Ramanagara, Karnataka</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SR Patil Medical College</t>
+          <t>Sri Chamundeshwari</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2440,22 +2408,22 @@
         <v>1200867</v>
       </c>
       <c r="F31" t="n">
-        <v>64851</v>
+        <v>63534</v>
       </c>
       <c r="G31" t="n">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H31" t="n">
-        <v>133093</v>
+        <v>116278</v>
       </c>
       <c r="I31" t="n">
-        <v>553</v>
+        <v>567</v>
       </c>
       <c r="J31" t="n">
-        <v>103714</v>
+        <v>99884</v>
       </c>
       <c r="K31" t="n">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -2484,16 +2452,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ramanagara, Karnataka</t>
+          <t>Chikballaapur, Karnataka</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Sri Chamundeshwari</t>
+          <t>Sri Madhusudan Sai</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2502,46 +2470,34 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1200867</v>
+        <v>2215750</v>
       </c>
       <c r="F32" t="n">
-        <v>63534</v>
+        <v>32034</v>
       </c>
       <c r="G32" t="n">
-        <v>612</v>
+        <v>644</v>
       </c>
       <c r="H32" t="n">
-        <v>116278</v>
+        <v>193122</v>
       </c>
       <c r="I32" t="n">
-        <v>567</v>
+        <v>508</v>
       </c>
       <c r="J32" t="n">
-        <v>99884</v>
+        <v>169113</v>
       </c>
       <c r="K32" t="n">
-        <v>580</v>
+        <v>517</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
@@ -2549,16 +2505,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Chikballaapur, Karnataka</t>
+          <t>Mangalore, Karnataka</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Sri Madhusudan Sai</t>
+          <t>Srinivasa IM. Rch. Center</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2567,34 +2523,46 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2215750</v>
+        <v>1200867</v>
       </c>
       <c r="F33" t="n">
-        <v>32034</v>
+        <v>46153</v>
       </c>
       <c r="G33" t="n">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="H33" t="n">
-        <v>193122</v>
+        <v>112438</v>
       </c>
       <c r="I33" t="n">
-        <v>508</v>
+        <v>570</v>
       </c>
       <c r="J33" t="n">
-        <v>169113</v>
+        <v>99895</v>
       </c>
       <c r="K33" t="n">
-        <v>517</v>
+        <v>580</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
@@ -2602,16 +2570,16 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Mangalore, Karnataka</t>
+          <t>Bangalore, Karnataka</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Srinivasa IM. Rch. Center</t>
+          <t>St John's Medical College</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2620,45 +2588,41 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1200867</v>
+        <v>811285</v>
       </c>
       <c r="F34" t="n">
-        <v>46153</v>
+        <v>6696</v>
       </c>
       <c r="G34" t="n">
-        <v>629</v>
+        <v>681</v>
       </c>
       <c r="H34" t="n">
-        <v>112438</v>
+        <v>11483</v>
       </c>
       <c r="I34" t="n">
-        <v>570</v>
-      </c>
-      <c r="J34" t="n">
-        <v>99895</v>
-      </c>
-      <c r="K34" t="n">
-        <v>580</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>671</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>22942</v>
+      </c>
+      <c r="M34" t="n">
+        <v>655</v>
+      </c>
+      <c r="N34" t="n">
+        <v>25379</v>
+      </c>
+      <c r="O34" t="n">
+        <v>651</v>
       </c>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
@@ -2667,16 +2631,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Bangalore, Karnataka</t>
+          <t>Shimoga, Karnataka</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>St John's Medical College</t>
+          <t>Subbaiah Institute of Med. Sc.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2685,41 +2649,45 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>811285</v>
+        <v>1200867</v>
       </c>
       <c r="F35" t="n">
-        <v>6696</v>
+        <v>62644</v>
       </c>
       <c r="G35" t="n">
-        <v>681</v>
+        <v>613</v>
       </c>
       <c r="H35" t="n">
-        <v>11483</v>
+        <v>118321</v>
       </c>
       <c r="I35" t="n">
-        <v>671</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>22942</v>
-      </c>
-      <c r="M35" t="n">
-        <v>655</v>
-      </c>
-      <c r="N35" t="n">
-        <v>25379</v>
-      </c>
-      <c r="O35" t="n">
-        <v>651</v>
+        <v>565</v>
+      </c>
+      <c r="J35" t="n">
+        <v>86462</v>
+      </c>
+      <c r="K35" t="n">
+        <v>592</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
@@ -2728,16 +2696,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Shimoga, Karnataka</t>
+          <t>Bangalore, Karnataka</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Subbaiah Institute of Med. Sc.</t>
+          <t>The Oxford MCH &amp; RC</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2749,19 +2717,19 @@
         <v>1200867</v>
       </c>
       <c r="F36" t="n">
-        <v>62644</v>
+        <v>36912</v>
       </c>
       <c r="G36" t="n">
-        <v>613</v>
+        <v>638</v>
       </c>
       <c r="H36" t="n">
-        <v>118321</v>
+        <v>87006</v>
       </c>
       <c r="I36" t="n">
-        <v>565</v>
+        <v>591</v>
       </c>
       <c r="J36" t="n">
-        <v>86462</v>
+        <v>86181</v>
       </c>
       <c r="K36" t="n">
         <v>592</v>
@@ -2793,7 +2761,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2802,7 +2770,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>The Oxford MCH &amp; RC</t>
+          <t>Vydehi IMS &amp; RC</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2814,22 +2782,22 @@
         <v>1200867</v>
       </c>
       <c r="F37" t="n">
-        <v>36912</v>
+        <v>26659</v>
       </c>
       <c r="G37" t="n">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="H37" t="n">
-        <v>87006</v>
+        <v>38530</v>
       </c>
       <c r="I37" t="n">
-        <v>591</v>
+        <v>637</v>
       </c>
       <c r="J37" t="n">
-        <v>86181</v>
+        <v>50949</v>
       </c>
       <c r="K37" t="n">
-        <v>592</v>
+        <v>624</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -2856,71 +2824,6 @@
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>3</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Bangalore, Karnataka</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Vydehi IMS &amp; RC</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>OPEN</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>1200867</v>
-      </c>
-      <c r="F38" t="n">
-        <v>26659</v>
-      </c>
-      <c r="G38" t="n">
-        <v>650</v>
-      </c>
-      <c r="H38" t="n">
-        <v>38530</v>
-      </c>
-      <c r="I38" t="n">
-        <v>637</v>
-      </c>
-      <c r="J38" t="n">
-        <v>50949</v>
-      </c>
-      <c r="K38" t="n">
-        <v>624</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
